--- a/R/documents/marts_log.xlsx
+++ b/R/documents/marts_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hcup-extraction-loading\documents\dbt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hcup-dbt\R\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E535FBA1-AF0E-4124-8ECC-483A2BBAD1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52F2265-2637-4499-8AD6-5FB04936EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE1E12EF-A882-47CE-A78A-32822EF802B4}"/>
   </bookViews>
@@ -222,56 +222,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,296 +578,296 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
     <col min="7" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
